--- a/mikrokecil.xlsx
+++ b/mikrokecil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C62DEF9-22D0-4395-B36B-784CF33AD426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D10ECD-3513-48EB-926D-BC5D752519BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -2595,11 +2595,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3772,6 +3775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3779,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4960,6 +4964,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
